--- a/biology/Botanique/Richard_Anthony_Salisbury/Richard_Anthony_Salisbury.xlsx
+++ b/biology/Botanique/Richard_Anthony_Salisbury/Richard_Anthony_Salisbury.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Anthony Salisbury est un botaniste britannique, né le 2 mai 1761 à Leeds et mort le 23 mars 1829.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Richard Markham. Les raisons pour lesquelles Richard change son nom en Salisbury ne sont pas très claires. Il semblerait qu’il l’ait fait pour financer ses études et obtenir l'aide d’une certaine Mrs. Anna Salisbury.
 Il se marie avec Caroline Staniforth en 1796, union de laquelle naît leur seul enfant, Eleanor, l’année suivante. Le couple se sépare peu après, Richard Salisbury ayant trompé Caroline sur l’état de ses finances au moment de contracter le mariage. Très endetté, il est arrêté pour malversations financières. En 1802, sa situation financière semble s’être améliorée, car il achète alors une maison.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Icones Stirpium rariorum, 1787.
 Prodromus Stirpium in horto ad Chapel Allerton, 1796.
@@ -577,7 +593,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ressources relatives à la recherche : Biodiversity Heritage Library Harvard University Herbaria &amp; Libraries International Plant Names Index 
